--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_24_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-966145.1574395762</v>
+        <v>-968712.931543818</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.5350489701059</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.074099077633</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.4842489273084</v>
       </c>
       <c r="E11" t="n">
-        <v>354.7315773788871</v>
+        <v>354.7315773788872</v>
       </c>
       <c r="F11" t="n">
-        <v>379.6772530483368</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.3527856880832</v>
       </c>
       <c r="I11" t="n">
-        <v>32.98879388501746</v>
+        <v>32.98879388501743</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>92.98930219783111</v>
       </c>
       <c r="T11" t="n">
-        <v>178.8323516934649</v>
+        <v>47.8505683336088</v>
       </c>
       <c r="U11" t="n">
-        <v>223.8349980981435</v>
+        <v>223.8349980981436</v>
       </c>
       <c r="V11" t="n">
-        <v>300.5534657767602</v>
+        <v>300.5534657767603</v>
       </c>
       <c r="W11" t="n">
-        <v>322.0421760240383</v>
+        <v>322.0421760240384</v>
       </c>
       <c r="X11" t="n">
-        <v>148.1995125349713</v>
+        <v>342.5323079850945</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.0391459626789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>139.3343909564927</v>
+        <v>139.3343909564928</v>
       </c>
       <c r="C12" t="n">
-        <v>145.5097062949411</v>
+        <v>145.5097062949412</v>
       </c>
       <c r="D12" t="n">
-        <v>120.2462728712641</v>
+        <v>120.2462728712642</v>
       </c>
       <c r="E12" t="n">
-        <v>130.4462877620263</v>
+        <v>130.4462877620264</v>
       </c>
       <c r="F12" t="n">
-        <v>117.8704197000092</v>
+        <v>117.8704197000093</v>
       </c>
       <c r="G12" t="n">
-        <v>108.0589626859926</v>
+        <v>108.0589626859927</v>
       </c>
       <c r="H12" t="n">
-        <v>64.89258378863408</v>
+        <v>64.89258378863417</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5111750120165652</v>
+        <v>0.5111750120166221</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>105.7422680833717</v>
+        <v>105.7422680833718</v>
       </c>
       <c r="T12" t="n">
-        <v>164.5588523200781</v>
+        <v>164.5588523200782</v>
       </c>
       <c r="U12" t="n">
-        <v>198.6053682176105</v>
+        <v>198.6053682176106</v>
       </c>
       <c r="V12" t="n">
-        <v>205.6017944560506</v>
+        <v>205.6017944560507</v>
       </c>
       <c r="W12" t="n">
-        <v>224.4961904675449</v>
+        <v>224.4961904675451</v>
       </c>
       <c r="X12" t="n">
-        <v>178.5741925101028</v>
+        <v>178.5741925101029</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.4839030839297</v>
+        <v>178.4839030839298</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.6331874885626</v>
+        <v>152.6331874885628</v>
       </c>
       <c r="C13" t="n">
-        <v>140.0480284052532</v>
+        <v>140.0480284052533</v>
       </c>
       <c r="D13" t="n">
-        <v>121.4166803248377</v>
+        <v>121.4166803248378</v>
       </c>
       <c r="E13" t="n">
-        <v>119.2351699531945</v>
+        <v>119.2351699531946</v>
       </c>
       <c r="F13" t="n">
-        <v>118.2222553295566</v>
+        <v>118.2222553295567</v>
       </c>
       <c r="G13" t="n">
-        <v>139.0435540507891</v>
+        <v>139.0435540507893</v>
       </c>
       <c r="H13" t="n">
-        <v>119.4814462069698</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.66553052399547</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>71.46971768104183</v>
       </c>
       <c r="S13" t="n">
-        <v>166.3439078744756</v>
+        <v>33.14451843071734</v>
       </c>
       <c r="T13" t="n">
-        <v>193.2753664738284</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>259.0248567023365</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>224.9388506304535</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.3242056432164</v>
       </c>
       <c r="X13" t="n">
-        <v>124.9281083474781</v>
+        <v>198.5108626956626</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.3858606587201</v>
+        <v>191.3858606587202</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.0740990776329</v>
+        <v>338.074099077633</v>
       </c>
       <c r="D14" t="n">
-        <v>327.4842489273083</v>
+        <v>327.4842489273084</v>
       </c>
       <c r="E14" t="n">
-        <v>354.7315773788871</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.6772530483368</v>
+        <v>379.6772530483369</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>383.7229329600789</v>
       </c>
       <c r="H14" t="n">
-        <v>267.4089716939458</v>
+        <v>267.4089716939459</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.3781370795514</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>81.98896909480118</v>
+        <v>81.98896909480129</v>
       </c>
       <c r="T14" t="n">
-        <v>176.7191774462455</v>
+        <v>176.7191774462456</v>
       </c>
       <c r="U14" t="n">
-        <v>223.7963792655273</v>
+        <v>223.7963792655274</v>
       </c>
       <c r="V14" t="n">
-        <v>300.5534657767602</v>
+        <v>300.5534657767603</v>
       </c>
       <c r="W14" t="n">
-        <v>322.0421760240383</v>
+        <v>322.0421760240384</v>
       </c>
       <c r="X14" t="n">
-        <v>94.98730442905429</v>
+        <v>342.5323079850945</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.0391459626789</v>
+        <v>68.12464974589577</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1701,7 +1701,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I15" t="n">
         <v>18.81721868247742</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.6331874885626</v>
+        <v>152.6331874885628</v>
       </c>
       <c r="C16" t="n">
-        <v>140.0480284052532</v>
+        <v>140.0480284052533</v>
       </c>
       <c r="D16" t="n">
-        <v>121.4166803248377</v>
+        <v>121.4166803248378</v>
       </c>
       <c r="E16" t="n">
-        <v>119.2351699531945</v>
+        <v>119.2351699531946</v>
       </c>
       <c r="F16" t="n">
-        <v>118.2222553295566</v>
+        <v>118.2222553295567</v>
       </c>
       <c r="G16" t="n">
-        <v>138.8270155656536</v>
+        <v>138.8270155656537</v>
       </c>
       <c r="H16" t="n">
-        <v>117.5562222209461</v>
+        <v>117.5562222209462</v>
       </c>
       <c r="I16" t="n">
-        <v>69.15362771646343</v>
+        <v>69.15362771646355</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.61270181937056</v>
+        <v>61.73335997667278</v>
       </c>
       <c r="S16" t="n">
-        <v>162.5702326380672</v>
+        <v>162.5702326380674</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.3501565827947</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>224.9388506304533</v>
+        <v>224.9388506304535</v>
       </c>
       <c r="W16" t="n">
-        <v>259.3242056432163</v>
+        <v>46.85339090311736</v>
       </c>
       <c r="X16" t="n">
-        <v>198.5108626956625</v>
+        <v>198.5108626956626</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.3858606587201</v>
+        <v>191.3858606587202</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D17" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F17" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U17" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V17" t="n">
         <v>230.06753824203</v>
@@ -1907,7 +1907,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X17" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y17" t="n">
         <v>288.5532184279487</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1986,7 +1986,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034773</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H19" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T19" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U19" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V19" t="n">
         <v>154.4529230957231</v>
@@ -2065,10 +2065,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C20" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D20" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925789</v>
       </c>
       <c r="E20" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G20" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H20" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
         <v>230.06753824203</v>
@@ -2144,10 +2144,10 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279478</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V21" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010748</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H22" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333702</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T22" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
         <v>154.4529230957231</v>
@@ -2302,10 +2302,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C23" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D23" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E23" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H23" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U23" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
         <v>230.06753824203</v>
@@ -2381,7 +2381,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
         <v>288.5532184279487</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T25" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
         <v>154.4529230957231</v>
@@ -2539,10 +2539,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y25" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>312.2479141287504</v>
+        <v>312.2479141287502</v>
       </c>
       <c r="C26" t="n">
-        <v>294.7869642362773</v>
+        <v>294.7869642362772</v>
       </c>
       <c r="D26" t="n">
-        <v>284.1971140859528</v>
+        <v>284.1971140859525</v>
       </c>
       <c r="E26" t="n">
-        <v>311.4444425375316</v>
+        <v>311.4444425375314</v>
       </c>
       <c r="F26" t="n">
-        <v>336.3901182069812</v>
+        <v>336.390118206981</v>
       </c>
       <c r="G26" t="n">
-        <v>340.4357981187233</v>
+        <v>340.435798118723</v>
       </c>
       <c r="H26" t="n">
-        <v>224.1218368525902</v>
+        <v>224.1218368525901</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.70183425344558</v>
+        <v>38.70183425344544</v>
       </c>
       <c r="T26" t="n">
-        <v>133.4320426048899</v>
+        <v>133.4320426048898</v>
       </c>
       <c r="U26" t="n">
-        <v>180.5092444241718</v>
+        <v>180.5092444241716</v>
       </c>
       <c r="V26" t="n">
-        <v>257.2663309354047</v>
+        <v>257.2663309354045</v>
       </c>
       <c r="W26" t="n">
-        <v>278.7550411826828</v>
+        <v>278.7550411826826</v>
       </c>
       <c r="X26" t="n">
-        <v>299.2451731437388</v>
+        <v>299.2451731437386</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.7520111213233</v>
+        <v>315.7520111213232</v>
       </c>
     </row>
     <row r="27">
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>109.3460526472071</v>
+        <v>109.3460526472069</v>
       </c>
       <c r="C28" t="n">
-        <v>96.76089356389761</v>
+        <v>96.76089356389744</v>
       </c>
       <c r="D28" t="n">
-        <v>78.12954548348213</v>
+        <v>78.12954548348196</v>
       </c>
       <c r="E28" t="n">
-        <v>75.94803511183895</v>
+        <v>75.94803511183878</v>
       </c>
       <c r="F28" t="n">
-        <v>74.93512048820102</v>
+        <v>74.93512048820085</v>
       </c>
       <c r="G28" t="n">
-        <v>95.539880724298</v>
+        <v>95.53988072429783</v>
       </c>
       <c r="H28" t="n">
-        <v>74.26908737959056</v>
+        <v>74.26908737959039</v>
       </c>
       <c r="I28" t="n">
-        <v>25.86649287510786</v>
+        <v>25.8664928751077</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.44622513531709</v>
+        <v>18.44622513531694</v>
       </c>
       <c r="S28" t="n">
-        <v>119.2830977967117</v>
+        <v>119.2830977967115</v>
       </c>
       <c r="T28" t="n">
-        <v>149.063021741439</v>
+        <v>149.0630217414388</v>
       </c>
       <c r="U28" t="n">
-        <v>215.7259106708826</v>
+        <v>215.7259106708825</v>
       </c>
       <c r="V28" t="n">
-        <v>181.6517157890978</v>
+        <v>181.6517157890976</v>
       </c>
       <c r="W28" t="n">
-        <v>216.0370708018608</v>
+        <v>216.0370708018606</v>
       </c>
       <c r="X28" t="n">
-        <v>155.2237278543069</v>
+        <v>155.2237278543068</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.0987258173646</v>
+        <v>148.0987258173644</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>312.2479141287504</v>
+        <v>312.2479141287502</v>
       </c>
       <c r="C29" t="n">
-        <v>294.7869642362773</v>
+        <v>294.7869642362772</v>
       </c>
       <c r="D29" t="n">
-        <v>284.1971140859528</v>
+        <v>284.1971140859525</v>
       </c>
       <c r="E29" t="n">
-        <v>311.4444425375316</v>
+        <v>311.4444425375314</v>
       </c>
       <c r="F29" t="n">
-        <v>336.3901182069812</v>
+        <v>336.390118206981</v>
       </c>
       <c r="G29" t="n">
-        <v>340.4357981187233</v>
+        <v>340.435798118723</v>
       </c>
       <c r="H29" t="n">
-        <v>224.1218368525903</v>
+        <v>224.1218368525901</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.70183425344561</v>
+        <v>38.70183425344544</v>
       </c>
       <c r="T29" t="n">
-        <v>133.4320426048899</v>
+        <v>133.4320426048897</v>
       </c>
       <c r="U29" t="n">
-        <v>180.5092444241718</v>
+        <v>180.5092444241716</v>
       </c>
       <c r="V29" t="n">
-        <v>257.2663309354047</v>
+        <v>257.2663309354045</v>
       </c>
       <c r="W29" t="n">
-        <v>278.7550411826828</v>
+        <v>278.7550411826826</v>
       </c>
       <c r="X29" t="n">
-        <v>299.2451731437388</v>
+        <v>299.2451731437386</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.7520111213233</v>
+        <v>315.7520111213232</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.3460526472071</v>
+        <v>109.3460526472069</v>
       </c>
       <c r="C31" t="n">
-        <v>96.76089356389761</v>
+        <v>96.76089356389744</v>
       </c>
       <c r="D31" t="n">
-        <v>78.12954548348213</v>
+        <v>78.12954548348196</v>
       </c>
       <c r="E31" t="n">
-        <v>75.94803511183895</v>
+        <v>75.94803511183878</v>
       </c>
       <c r="F31" t="n">
-        <v>74.93512048820102</v>
+        <v>74.93512048820085</v>
       </c>
       <c r="G31" t="n">
-        <v>95.539880724298</v>
+        <v>95.53988072429783</v>
       </c>
       <c r="H31" t="n">
-        <v>74.26908737959056</v>
+        <v>74.26908737959039</v>
       </c>
       <c r="I31" t="n">
-        <v>25.86649287510787</v>
+        <v>25.8664928751077</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.44622513531711</v>
+        <v>18.44622513531694</v>
       </c>
       <c r="S31" t="n">
-        <v>119.2830977967117</v>
+        <v>119.2830977967115</v>
       </c>
       <c r="T31" t="n">
-        <v>149.063021741439</v>
+        <v>149.0630217414388</v>
       </c>
       <c r="U31" t="n">
-        <v>215.7259106708826</v>
+        <v>215.7259106708825</v>
       </c>
       <c r="V31" t="n">
-        <v>181.6517157890978</v>
+        <v>181.6517157890976</v>
       </c>
       <c r="W31" t="n">
-        <v>216.0370708018608</v>
+        <v>216.0370708018606</v>
       </c>
       <c r="X31" t="n">
-        <v>155.2237278543069</v>
+        <v>155.2237278543068</v>
       </c>
       <c r="Y31" t="n">
-        <v>148.0987258173646</v>
+        <v>148.0987258173644</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>312.2479141287504</v>
+        <v>312.2479141287501</v>
       </c>
       <c r="C32" t="n">
-        <v>294.7869642362774</v>
+        <v>294.7869642362771</v>
       </c>
       <c r="D32" t="n">
-        <v>284.1971140859528</v>
+        <v>284.1971140859525</v>
       </c>
       <c r="E32" t="n">
-        <v>311.4444425375316</v>
+        <v>311.4444425375313</v>
       </c>
       <c r="F32" t="n">
-        <v>336.3901182069812</v>
+        <v>336.390118206981</v>
       </c>
       <c r="G32" t="n">
-        <v>340.4357981187233</v>
+        <v>340.435798118723</v>
       </c>
       <c r="H32" t="n">
-        <v>224.1218368525903</v>
+        <v>224.12183685259</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.70183425344567</v>
+        <v>38.70183425344536</v>
       </c>
       <c r="T32" t="n">
-        <v>133.4320426048899</v>
+        <v>133.4320426048897</v>
       </c>
       <c r="U32" t="n">
-        <v>180.5092444241718</v>
+        <v>180.5092444241715</v>
       </c>
       <c r="V32" t="n">
-        <v>257.2663309354047</v>
+        <v>257.2663309354044</v>
       </c>
       <c r="W32" t="n">
-        <v>278.7550411826828</v>
+        <v>278.7550411826825</v>
       </c>
       <c r="X32" t="n">
-        <v>299.2451731437388</v>
+        <v>299.2451731437386</v>
       </c>
       <c r="Y32" t="n">
-        <v>315.7520111213234</v>
+        <v>315.7520111213231</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247732</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.3460526472071</v>
+        <v>109.3460526472068</v>
       </c>
       <c r="C34" t="n">
-        <v>96.76089356389765</v>
+        <v>96.76089356389735</v>
       </c>
       <c r="D34" t="n">
-        <v>78.12954548348218</v>
+        <v>78.12954548348188</v>
       </c>
       <c r="E34" t="n">
-        <v>75.94803511183899</v>
+        <v>75.94803511183869</v>
       </c>
       <c r="F34" t="n">
-        <v>74.93512048820106</v>
+        <v>74.93512048820077</v>
       </c>
       <c r="G34" t="n">
-        <v>95.53988072429804</v>
+        <v>95.53988072429775</v>
       </c>
       <c r="H34" t="n">
-        <v>74.2690873795906</v>
+        <v>74.2690873795903</v>
       </c>
       <c r="I34" t="n">
-        <v>25.86649287510792</v>
+        <v>25.86649287510762</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.44622513531715</v>
+        <v>18.44622513531685</v>
       </c>
       <c r="S34" t="n">
-        <v>119.2830977967117</v>
+        <v>119.2830977967114</v>
       </c>
       <c r="T34" t="n">
-        <v>149.063021741439</v>
+        <v>149.0630217414387</v>
       </c>
       <c r="U34" t="n">
-        <v>215.7259106708827</v>
+        <v>215.7259106708824</v>
       </c>
       <c r="V34" t="n">
-        <v>181.6517157890978</v>
+        <v>181.6517157890975</v>
       </c>
       <c r="W34" t="n">
-        <v>216.0370708018608</v>
+        <v>216.0370708018605</v>
       </c>
       <c r="X34" t="n">
-        <v>155.223727854307</v>
+        <v>155.2237278543067</v>
       </c>
       <c r="Y34" t="n">
-        <v>148.0987258173646</v>
+        <v>148.0987258173643</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3317,7 @@
         <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3961,7 +3961,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239899</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,7 +4198,7 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239899</v>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>829.8890520443666</v>
+        <v>1393.761658756173</v>
       </c>
       <c r="C11" t="n">
-        <v>829.8890520443666</v>
+        <v>1052.272669788867</v>
       </c>
       <c r="D11" t="n">
-        <v>829.8890520443666</v>
+        <v>721.4804991552219</v>
       </c>
       <c r="E11" t="n">
-        <v>471.5743274192281</v>
+        <v>363.1657745300832</v>
       </c>
       <c r="F11" t="n">
-        <v>88.06195060272626</v>
+        <v>363.1657745300832</v>
       </c>
       <c r="G11" t="n">
-        <v>88.06195060272626</v>
+        <v>363.1657745300832</v>
       </c>
       <c r="H11" t="n">
-        <v>88.06195060272626</v>
+        <v>88.06195060272645</v>
       </c>
       <c r="I11" t="n">
-        <v>54.73993657745628</v>
+        <v>54.73993657745633</v>
       </c>
       <c r="J11" t="n">
-        <v>203.0572188700535</v>
+        <v>203.057218870053</v>
       </c>
       <c r="K11" t="n">
-        <v>476.084895983488</v>
+        <v>476.0848959834876</v>
       </c>
       <c r="L11" t="n">
         <v>851.7016340593318</v>
@@ -5051,40 +5051,40 @@
         <v>1301.317066210022</v>
       </c>
       <c r="N11" t="n">
-        <v>1762.821554490205</v>
+        <v>1762.821554490206</v>
       </c>
       <c r="O11" t="n">
-        <v>2185.271894799186</v>
+        <v>2185.271894799187</v>
       </c>
       <c r="P11" t="n">
-        <v>2511.322485659896</v>
+        <v>2511.322485659898</v>
       </c>
       <c r="Q11" t="n">
-        <v>2708.000154089588</v>
+        <v>2708.00015408959</v>
       </c>
       <c r="R11" t="n">
-        <v>2736.996828872814</v>
+        <v>2736.996828872816</v>
       </c>
       <c r="S11" t="n">
-        <v>2736.996828872814</v>
+        <v>2643.068240794199</v>
       </c>
       <c r="T11" t="n">
-        <v>2556.358089788506</v>
+        <v>2594.734333386513</v>
       </c>
       <c r="U11" t="n">
-        <v>2330.262132113613</v>
+        <v>2368.638375711621</v>
       </c>
       <c r="V11" t="n">
-        <v>2026.672772743148</v>
+        <v>2065.049016341156</v>
       </c>
       <c r="W11" t="n">
-        <v>1701.37764544614</v>
+        <v>1739.753889044147</v>
       </c>
       <c r="X11" t="n">
-        <v>1551.681168138089</v>
+        <v>1393.761658756173</v>
       </c>
       <c r="Y11" t="n">
-        <v>1189.015364135383</v>
+        <v>1393.761658756173</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>749.2201467945108</v>
+        <v>749.2201467945116</v>
       </c>
       <c r="C12" t="n">
-        <v>602.2406454864895</v>
+        <v>602.2406454864902</v>
       </c>
       <c r="D12" t="n">
-        <v>480.7797637983439</v>
+        <v>480.7797637983446</v>
       </c>
       <c r="E12" t="n">
-        <v>349.0158367659941</v>
+        <v>349.0158367659947</v>
       </c>
       <c r="F12" t="n">
-        <v>229.9548067659848</v>
+        <v>229.9548067659853</v>
       </c>
       <c r="G12" t="n">
-        <v>120.8043394063964</v>
+        <v>120.8043394063972</v>
       </c>
       <c r="H12" t="n">
-        <v>55.25627497343261</v>
+        <v>55.2562749734334</v>
       </c>
       <c r="I12" t="n">
-        <v>54.73993657745628</v>
+        <v>54.73993657745633</v>
       </c>
       <c r="J12" t="n">
-        <v>124.2588468788303</v>
+        <v>124.2588468788306</v>
       </c>
       <c r="K12" t="n">
-        <v>321.2325621179226</v>
+        <v>321.232562117923</v>
       </c>
       <c r="L12" t="n">
-        <v>632.4105714782881</v>
+        <v>632.4105714782889</v>
       </c>
       <c r="M12" t="n">
-        <v>1014.897499255611</v>
+        <v>1014.897499255613</v>
       </c>
       <c r="N12" t="n">
-        <v>1421.916362801573</v>
+        <v>1421.916362801575</v>
       </c>
       <c r="O12" t="n">
-        <v>1772.03931015803</v>
+        <v>1772.039310158032</v>
       </c>
       <c r="P12" t="n">
-        <v>2033.710776552601</v>
+        <v>2033.710776552603</v>
       </c>
       <c r="Q12" t="n">
-        <v>2158.712025678532</v>
+        <v>2158.712025678534</v>
       </c>
       <c r="R12" t="n">
-        <v>2158.712025678532</v>
+        <v>2158.712025678534</v>
       </c>
       <c r="S12" t="n">
-        <v>2051.901653877147</v>
+        <v>2051.901653877148</v>
       </c>
       <c r="T12" t="n">
-        <v>1885.680590927573</v>
+        <v>1885.680590927574</v>
       </c>
       <c r="U12" t="n">
-        <v>1685.069107879481</v>
+        <v>1685.069107879483</v>
       </c>
       <c r="V12" t="n">
-        <v>1477.390527620844</v>
+        <v>1477.390527620846</v>
       </c>
       <c r="W12" t="n">
-        <v>1250.626698865748</v>
+        <v>1250.62669886575</v>
       </c>
       <c r="X12" t="n">
-        <v>1070.248726633321</v>
+        <v>1070.248726633322</v>
       </c>
       <c r="Y12" t="n">
-        <v>889.9619558414731</v>
+        <v>889.961955841474</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>819.8380520023056</v>
+        <v>775.5795513124333</v>
       </c>
       <c r="C13" t="n">
-        <v>678.3753970475044</v>
+        <v>634.116896357632</v>
       </c>
       <c r="D13" t="n">
-        <v>555.7322856082744</v>
+        <v>511.4737849184018</v>
       </c>
       <c r="E13" t="n">
-        <v>435.2927199989871</v>
+        <v>391.0342193091143</v>
       </c>
       <c r="F13" t="n">
-        <v>315.8763004741824</v>
+        <v>271.6177997843096</v>
       </c>
       <c r="G13" t="n">
-        <v>175.428266079446</v>
+        <v>131.169765389573</v>
       </c>
       <c r="H13" t="n">
-        <v>54.73993657745628</v>
+        <v>131.169765389573</v>
       </c>
       <c r="I13" t="n">
-        <v>54.73993657745628</v>
+        <v>54.73993657745633</v>
       </c>
       <c r="J13" t="n">
         <v>111.6331956007378</v>
@@ -5203,46 +5203,46 @@
         <v>317.6409267557601</v>
       </c>
       <c r="L13" t="n">
-        <v>629.256096497531</v>
+        <v>629.2560964975311</v>
       </c>
       <c r="M13" t="n">
-        <v>966.7359889707848</v>
+        <v>966.735988970785</v>
       </c>
       <c r="N13" t="n">
         <v>1302.266239560505</v>
       </c>
       <c r="O13" t="n">
-        <v>1598.221979945366</v>
+        <v>1598.221979945367</v>
       </c>
       <c r="P13" t="n">
-        <v>1831.828833089272</v>
+        <v>1831.828833089273</v>
       </c>
       <c r="Q13" t="n">
-        <v>1918.415110128973</v>
+        <v>1918.415110128974</v>
       </c>
       <c r="R13" t="n">
-        <v>1918.415110128973</v>
+        <v>1846.223476107719</v>
       </c>
       <c r="S13" t="n">
-        <v>1750.390960760816</v>
+        <v>1812.74416456154</v>
       </c>
       <c r="T13" t="n">
-        <v>1555.163317857959</v>
+        <v>1812.74416456154</v>
       </c>
       <c r="U13" t="n">
-        <v>1293.522048461659</v>
+        <v>1812.74416456154</v>
       </c>
       <c r="V13" t="n">
-        <v>1293.522048461659</v>
+        <v>1585.533204328759</v>
       </c>
       <c r="W13" t="n">
-        <v>1293.522048461659</v>
+        <v>1323.589562264904</v>
       </c>
       <c r="X13" t="n">
-        <v>1167.332040029864</v>
+        <v>1123.073539339992</v>
       </c>
       <c r="Y13" t="n">
-        <v>974.0129888594396</v>
+        <v>929.7544881695674</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1750.730449892902</v>
+        <v>1794.538018237087</v>
       </c>
       <c r="C14" t="n">
-        <v>1409.241460925595</v>
+        <v>1453.049029269781</v>
       </c>
       <c r="D14" t="n">
-        <v>1078.449290291951</v>
+        <v>1122.256858636136</v>
       </c>
       <c r="E14" t="n">
-        <v>720.134565666812</v>
+        <v>1122.256858636136</v>
       </c>
       <c r="F14" t="n">
-        <v>336.6221888503105</v>
+        <v>738.7444818196341</v>
       </c>
       <c r="G14" t="n">
-        <v>336.6221888503105</v>
+        <v>351.1455596377363</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>81.0354872196091</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.788681109371</v>
+        <v>3242.788681109372</v>
       </c>
       <c r="T14" t="n">
-        <v>3064.284461466699</v>
+        <v>3064.2844614667</v>
       </c>
       <c r="U14" t="n">
-        <v>2838.227512713641</v>
+        <v>2838.227512713642</v>
       </c>
       <c r="V14" t="n">
-        <v>2534.638153343176</v>
+        <v>2534.638153343177</v>
       </c>
       <c r="W14" t="n">
         <v>2209.343026046168</v>
       </c>
       <c r="X14" t="n">
-        <v>2113.396253895608</v>
+        <v>1863.350795758194</v>
       </c>
       <c r="Y14" t="n">
-        <v>1750.730449892902</v>
+        <v>1794.538018237087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,31 +5331,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>899.2989846300674</v>
+        <v>899.2989846300682</v>
       </c>
       <c r="C16" t="n">
-        <v>757.8363296752661</v>
+        <v>757.8363296752668</v>
       </c>
       <c r="D16" t="n">
-        <v>635.193218236036</v>
+        <v>635.1932182360367</v>
       </c>
       <c r="E16" t="n">
-        <v>514.7536526267487</v>
+        <v>514.7536526267493</v>
       </c>
       <c r="F16" t="n">
-        <v>395.3372331019441</v>
+        <v>395.3372331019445</v>
       </c>
       <c r="G16" t="n">
-        <v>255.1079244497688</v>
+        <v>255.1079244497691</v>
       </c>
       <c r="H16" t="n">
-        <v>136.3642656407323</v>
+        <v>136.3642656407325</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.5615536455599</v>
+        <v>138.5615536455598</v>
       </c>
       <c r="K16" t="n">
-        <v>369.4755413608772</v>
+        <v>369.4755413608771</v>
       </c>
       <c r="L16" t="n">
-        <v>712.9621445758142</v>
+        <v>712.962144575814</v>
       </c>
       <c r="M16" t="n">
         <v>1084.045994941804</v>
       </c>
       <c r="N16" t="n">
-        <v>1452.38117641411</v>
+        <v>1452.381176414109</v>
       </c>
       <c r="O16" t="n">
-        <v>1778.637580100964</v>
+        <v>1778.637580100963</v>
       </c>
       <c r="P16" t="n">
-        <v>2038.171885301064</v>
+        <v>2038.171885301063</v>
       </c>
       <c r="Q16" t="n">
-        <v>2142.70898622002</v>
+        <v>2142.708986220019</v>
       </c>
       <c r="R16" t="n">
-        <v>2100.675954079241</v>
+        <v>2080.352056950652</v>
       </c>
       <c r="S16" t="n">
-        <v>1936.463597879173</v>
+        <v>1916.139700750584</v>
       </c>
       <c r="T16" t="n">
-        <v>1936.463597879173</v>
+        <v>1721.846613293216</v>
       </c>
       <c r="U16" t="n">
-        <v>1936.463597879173</v>
+        <v>1721.846613293216</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.252637646392</v>
+        <v>1494.635653060435</v>
       </c>
       <c r="W16" t="n">
-        <v>1447.308995582537</v>
+        <v>1447.308995582539</v>
       </c>
       <c r="X16" t="n">
-        <v>1246.792972657626</v>
+        <v>1246.792972657627</v>
       </c>
       <c r="Y16" t="n">
-        <v>1053.473921487201</v>
+        <v>1053.473921487202</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C17" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D17" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E17" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F17" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G17" t="n">
         <v>265.4242822495729</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5546,19 +5546,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U17" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V17" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W17" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X17" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y17" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="18">
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F19" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G19" t="n">
         <v>114.0578686404823</v>
@@ -5671,52 +5671,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>175.0427429954467</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K19" t="n">
-        <v>370.0614702889409</v>
+        <v>273.3535972631172</v>
       </c>
       <c r="L19" t="n">
-        <v>622.479187237122</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M19" t="n">
-        <v>789.9116685363198</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N19" t="n">
-        <v>1057.928378591991</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O19" t="n">
-        <v>1195.846727810181</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P19" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q19" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R19" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U19" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V19" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X19" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5735,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G20" t="n">
         <v>265.4242822495729</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5792,7 +5792,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y20" t="n">
         <v>1999.070337960652</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.2593958170929</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630293</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245369</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F22" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G22" t="n">
         <v>114.0578686404823</v>
@@ -5905,55 +5905,55 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>67.83109325226755</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>155.2189959588268</v>
+        <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>350.237723252321</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L22" t="n">
-        <v>602.6554402005021</v>
+        <v>525.7713142112984</v>
       </c>
       <c r="M22" t="n">
-        <v>770.0879214996999</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N22" t="n">
-        <v>1038.104631555371</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O22" t="n">
-        <v>1272.730853799385</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.389729577967</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q22" t="n">
-        <v>1481.310496936508</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219655</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T22" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.4214224304675</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673502</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431761</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734893</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -5999,34 +5999,34 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T23" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X23" t="n">
         <v>2290.53823536262</v>
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6099,7 +6099,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6108,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170928</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630292</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245368</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159871</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.08927069192</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226761</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L25" t="n">
-        <v>429.0634411854744</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M25" t="n">
-        <v>693.2037955104961</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N25" t="n">
-        <v>961.2205055661675</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O25" t="n">
-        <v>1195.846727810181</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P25" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
-        <v>1489.975538818985</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R25" t="n">
-        <v>1489.975538818985</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
-        <v>1273.865908363024</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U25" t="n">
-        <v>1083.434476062511</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304673</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W25" t="n">
-        <v>736.67568696735</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431759</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734892</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1883.832679729896</v>
+        <v>1883.832679729894</v>
       </c>
       <c r="C26" t="n">
-        <v>1586.068069390222</v>
+        <v>1586.06806939022</v>
       </c>
       <c r="D26" t="n">
-        <v>1299.000277384209</v>
+        <v>1299.000277384207</v>
       </c>
       <c r="E26" t="n">
-        <v>984.4099313867023</v>
+        <v>984.4099313867007</v>
       </c>
       <c r="F26" t="n">
-        <v>644.6219331978325</v>
+        <v>644.6219331978309</v>
       </c>
       <c r="G26" t="n">
-        <v>300.747389643566</v>
+        <v>300.7473896435657</v>
       </c>
       <c r="H26" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="I26" t="n">
         <v>102.9816036372571</v>
       </c>
       <c r="J26" t="n">
-        <v>361.6418028556656</v>
+        <v>298.9648771386584</v>
       </c>
       <c r="K26" t="n">
-        <v>702.5653190878913</v>
+        <v>702.5653190878879</v>
       </c>
       <c r="L26" t="n">
-        <v>1223.380600595683</v>
+        <v>1223.38060059568</v>
       </c>
       <c r="M26" t="n">
-        <v>1826.693573526991</v>
+        <v>1756.912505267605</v>
       </c>
       <c r="N26" t="n">
-        <v>2443.253458845156</v>
+        <v>2373.47239058577</v>
       </c>
       <c r="O26" t="n">
-        <v>2946.225929724494</v>
+        <v>2876.444861465107</v>
       </c>
       <c r="P26" t="n">
-        <v>3341.000296081672</v>
+        <v>3341.000296081668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3659.067726096737</v>
+        <v>3659.067726096734</v>
       </c>
       <c r="R26" t="n">
-        <v>3718.08479265354</v>
+        <v>3718.084792653536</v>
       </c>
       <c r="S26" t="n">
-        <v>3678.992030781373</v>
+        <v>3678.992030781369</v>
       </c>
       <c r="T26" t="n">
-        <v>3544.212189766332</v>
+        <v>3544.212189766329</v>
       </c>
       <c r="U26" t="n">
-        <v>3361.879619640906</v>
+        <v>3361.879619640903</v>
       </c>
       <c r="V26" t="n">
-        <v>3102.014638898073</v>
+        <v>3102.01463889807</v>
       </c>
       <c r="W26" t="n">
-        <v>2820.443890228697</v>
+        <v>2820.443890228694</v>
       </c>
       <c r="X26" t="n">
-        <v>2518.176038568354</v>
+        <v>2518.176038568352</v>
       </c>
       <c r="Y26" t="n">
-        <v>2199.23461319328</v>
+        <v>2199.234613193278</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>949.3934339019956</v>
+        <v>949.3934339019959</v>
       </c>
       <c r="C27" t="n">
-        <v>774.9404046208687</v>
+        <v>774.9404046208689</v>
       </c>
       <c r="D27" t="n">
-        <v>626.0059949596175</v>
+        <v>626.0059949596176</v>
       </c>
       <c r="E27" t="n">
-        <v>466.768539954162</v>
+        <v>466.7685399541621</v>
       </c>
       <c r="F27" t="n">
-        <v>320.233981981047</v>
+        <v>320.2339819810471</v>
       </c>
       <c r="G27" t="n">
-        <v>183.8708818136658</v>
+        <v>183.8708818136652</v>
       </c>
       <c r="H27" t="n">
-        <v>93.3689874515332</v>
+        <v>93.36898745153275</v>
       </c>
       <c r="I27" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0389653436879</v>
+        <v>168.0389653436881</v>
       </c>
       <c r="K27" t="n">
-        <v>406.3031643240353</v>
+        <v>406.3031643240352</v>
       </c>
       <c r="L27" t="n">
-        <v>773.0013246367005</v>
+        <v>773.0013246367006</v>
       </c>
       <c r="M27" t="n">
         <v>1220.277649859016</v>
@@ -6342,7 +6342,7 @@
         <v>1787.457926620752</v>
       </c>
       <c r="W27" t="n">
-        <v>1533.22056989255</v>
+        <v>1533.220569892551</v>
       </c>
       <c r="X27" t="n">
         <v>1325.369069687018</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>601.0779136575316</v>
+        <v>601.0779136575304</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3396373303623</v>
+        <v>503.3396373303613</v>
       </c>
       <c r="D28" t="n">
-        <v>424.4209045187642</v>
+        <v>424.4209045187633</v>
       </c>
       <c r="E28" t="n">
-        <v>347.7057175371087</v>
+        <v>347.7057175371079</v>
       </c>
       <c r="F28" t="n">
-        <v>272.0136766399359</v>
+        <v>272.0136766399353</v>
       </c>
       <c r="G28" t="n">
-        <v>175.5087466153925</v>
+        <v>175.5087466153921</v>
       </c>
       <c r="H28" t="n">
-        <v>100.4894664339878</v>
+        <v>100.4894664339876</v>
       </c>
       <c r="I28" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J28" t="n">
-        <v>155.9655176498932</v>
+        <v>155.9655176498933</v>
       </c>
       <c r="K28" t="n">
-        <v>352.7735071784718</v>
+        <v>324.0574401769468</v>
       </c>
       <c r="L28" t="n">
-        <v>578.2644193602121</v>
+        <v>710.3983068848261</v>
       </c>
       <c r="M28" t="n">
-        <v>992.202533219144</v>
+        <v>1124.336420743758</v>
       </c>
       <c r="N28" t="n">
-        <v>1403.391978184392</v>
+        <v>1365.426326032989</v>
       </c>
       <c r="O28" t="n">
-        <v>1611.091395661964</v>
+        <v>1573.125743510561</v>
       </c>
       <c r="P28" t="n">
-        <v>1779.823466674106</v>
+        <v>1844.512995468077</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.214831086004</v>
+        <v>1927.214831086001</v>
       </c>
       <c r="R28" t="n">
-        <v>1908.582280444269</v>
+        <v>1908.582280444267</v>
       </c>
       <c r="S28" t="n">
-        <v>1788.094302871833</v>
+        <v>1788.094302871831</v>
       </c>
       <c r="T28" t="n">
-        <v>1637.525594042097</v>
+        <v>1637.525594042095</v>
       </c>
       <c r="U28" t="n">
-        <v>1419.620633768478</v>
+        <v>1419.620633768476</v>
       </c>
       <c r="V28" t="n">
-        <v>1236.134052163329</v>
+        <v>1236.134052163327</v>
       </c>
       <c r="W28" t="n">
-        <v>1017.914788727106</v>
+        <v>1017.914788727104</v>
       </c>
       <c r="X28" t="n">
-        <v>861.1231444298262</v>
+        <v>861.1231444298246</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.5284718870337</v>
+        <v>711.5284718870323</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1883.832679729896</v>
+        <v>1883.832679729894</v>
       </c>
       <c r="C29" t="n">
-        <v>1586.068069390222</v>
+        <v>1586.06806939022</v>
       </c>
       <c r="D29" t="n">
-        <v>1299.000277384209</v>
+        <v>1299.000277384207</v>
       </c>
       <c r="E29" t="n">
-        <v>984.4099313867021</v>
+        <v>984.4099313867011</v>
       </c>
       <c r="F29" t="n">
-        <v>644.621933197832</v>
+        <v>644.6219331978314</v>
       </c>
       <c r="G29" t="n">
-        <v>300.747389643566</v>
+        <v>300.7473896435657</v>
       </c>
       <c r="H29" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="I29" t="n">
-        <v>102.981603637257</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J29" t="n">
-        <v>361.6418028556654</v>
+        <v>333.0218950714792</v>
       </c>
       <c r="K29" t="n">
-        <v>702.5653190878925</v>
+        <v>666.8412687613256</v>
       </c>
       <c r="L29" t="n">
-        <v>1153.599532336301</v>
+        <v>1187.656550269118</v>
       </c>
       <c r="M29" t="n">
-        <v>1687.131437008226</v>
+        <v>1756.912505267605</v>
       </c>
       <c r="N29" t="n">
-        <v>2303.691322326391</v>
+        <v>2373.47239058577</v>
       </c>
       <c r="O29" t="n">
-        <v>2876.444861465111</v>
+        <v>2946.22592972449</v>
       </c>
       <c r="P29" t="n">
-        <v>3341.000296081672</v>
+        <v>3341.000296081668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3589.286657837354</v>
+        <v>3659.067726096734</v>
       </c>
       <c r="R29" t="n">
-        <v>3718.08479265354</v>
+        <v>3718.084792653536</v>
       </c>
       <c r="S29" t="n">
-        <v>3678.992030781372</v>
+        <v>3678.992030781369</v>
       </c>
       <c r="T29" t="n">
-        <v>3544.212189766332</v>
+        <v>3544.212189766329</v>
       </c>
       <c r="U29" t="n">
-        <v>3361.879619640906</v>
+        <v>3361.879619640903</v>
       </c>
       <c r="V29" t="n">
-        <v>3102.014638898073</v>
+        <v>3102.01463889807</v>
       </c>
       <c r="W29" t="n">
-        <v>2820.443890228697</v>
+        <v>2820.443890228694</v>
       </c>
       <c r="X29" t="n">
-        <v>2518.176038568354</v>
+        <v>2518.176038568352</v>
       </c>
       <c r="Y29" t="n">
-        <v>2199.23461319328</v>
+        <v>2199.234613193278</v>
       </c>
     </row>
     <row r="30">
@@ -6525,28 +6525,28 @@
         <v>626.0059949596177</v>
       </c>
       <c r="E30" t="n">
-        <v>466.7685399541623</v>
+        <v>466.7685399541622</v>
       </c>
       <c r="F30" t="n">
-        <v>320.2339819810472</v>
+        <v>320.2339819810471</v>
       </c>
       <c r="G30" t="n">
-        <v>183.8708818136653</v>
+        <v>183.8708818136652</v>
       </c>
       <c r="H30" t="n">
-        <v>93.36898745153283</v>
+        <v>93.36898745153277</v>
       </c>
       <c r="I30" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J30" t="n">
         <v>168.0389653436881</v>
       </c>
       <c r="K30" t="n">
-        <v>406.3031643240353</v>
+        <v>406.3031643240352</v>
       </c>
       <c r="L30" t="n">
-        <v>773.0013246367007</v>
+        <v>773.0013246367006</v>
       </c>
       <c r="M30" t="n">
         <v>1220.277649859016</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>601.0779136575316</v>
+        <v>601.0779136575304</v>
       </c>
       <c r="C31" t="n">
-        <v>503.3396373303623</v>
+        <v>503.3396373303613</v>
       </c>
       <c r="D31" t="n">
-        <v>424.4209045187642</v>
+        <v>424.4209045187633</v>
       </c>
       <c r="E31" t="n">
-        <v>347.7057175371087</v>
+        <v>347.7057175371079</v>
       </c>
       <c r="F31" t="n">
-        <v>272.0136766399359</v>
+        <v>272.0136766399353</v>
       </c>
       <c r="G31" t="n">
-        <v>175.5087466153925</v>
+        <v>175.5087466153921</v>
       </c>
       <c r="H31" t="n">
-        <v>100.4894664339878</v>
+        <v>100.4894664339876</v>
       </c>
       <c r="I31" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J31" t="n">
-        <v>189.2653965593893</v>
+        <v>189.2653965593894</v>
       </c>
       <c r="K31" t="n">
-        <v>463.0336477676485</v>
+        <v>357.3573190864429</v>
       </c>
       <c r="L31" t="n">
-        <v>688.5245599493887</v>
+        <v>743.6981857943222</v>
       </c>
       <c r="M31" t="n">
-        <v>1102.462673808321</v>
+        <v>1157.636299653254</v>
       </c>
       <c r="N31" t="n">
-        <v>1403.391978184392</v>
+        <v>1398.726204942485</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.091395661965</v>
+        <v>1606.425622420058</v>
       </c>
       <c r="P31" t="n">
-        <v>1779.823466674106</v>
+        <v>1844.512995468077</v>
       </c>
       <c r="Q31" t="n">
-        <v>1927.214831086004</v>
+        <v>1927.214831086001</v>
       </c>
       <c r="R31" t="n">
-        <v>1908.582280444269</v>
+        <v>1908.582280444267</v>
       </c>
       <c r="S31" t="n">
-        <v>1788.094302871833</v>
+        <v>1788.094302871831</v>
       </c>
       <c r="T31" t="n">
-        <v>1637.525594042097</v>
+        <v>1637.525594042095</v>
       </c>
       <c r="U31" t="n">
-        <v>1419.620633768478</v>
+        <v>1419.620633768476</v>
       </c>
       <c r="V31" t="n">
-        <v>1236.134052163329</v>
+        <v>1236.134052163327</v>
       </c>
       <c r="W31" t="n">
-        <v>1017.914788727106</v>
+        <v>1017.914788727104</v>
       </c>
       <c r="X31" t="n">
-        <v>861.1231444298262</v>
+        <v>861.1231444298246</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.5284718870337</v>
+        <v>711.5284718870323</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1883.832679729896</v>
+        <v>1883.832679729894</v>
       </c>
       <c r="C32" t="n">
-        <v>1586.068069390222</v>
+        <v>1586.06806939022</v>
       </c>
       <c r="D32" t="n">
-        <v>1299.000277384209</v>
+        <v>1299.000277384208</v>
       </c>
       <c r="E32" t="n">
-        <v>984.4099313867023</v>
+        <v>984.4099313867015</v>
       </c>
       <c r="F32" t="n">
-        <v>644.6219331978323</v>
+        <v>644.6219331978318</v>
       </c>
       <c r="G32" t="n">
-        <v>300.747389643566</v>
+        <v>300.7473896435657</v>
       </c>
       <c r="H32" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="I32" t="n">
-        <v>74.3616958530708</v>
+        <v>102.9816036372572</v>
       </c>
       <c r="J32" t="n">
-        <v>263.2408268120963</v>
+        <v>291.8607345962827</v>
       </c>
       <c r="K32" t="n">
-        <v>597.0602005019427</v>
+        <v>625.6801082861291</v>
       </c>
       <c r="L32" t="n">
-        <v>1117.875482009734</v>
+        <v>1146.495389793921</v>
       </c>
       <c r="M32" t="n">
-        <v>1687.131437008226</v>
+        <v>1749.808362725229</v>
       </c>
       <c r="N32" t="n">
-        <v>2303.691322326391</v>
+        <v>2296.587179784011</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.444861465111</v>
+        <v>2869.340718922731</v>
       </c>
       <c r="P32" t="n">
-        <v>3271.219227822289</v>
+        <v>3333.896153539293</v>
       </c>
       <c r="Q32" t="n">
-        <v>3589.286657837355</v>
+        <v>3589.286657837351</v>
       </c>
       <c r="R32" t="n">
-        <v>3718.08479265354</v>
+        <v>3718.084792653536</v>
       </c>
       <c r="S32" t="n">
-        <v>3678.992030781372</v>
+        <v>3678.992030781369</v>
       </c>
       <c r="T32" t="n">
-        <v>3544.212189766332</v>
+        <v>3544.212189766329</v>
       </c>
       <c r="U32" t="n">
-        <v>3361.879619640906</v>
+        <v>3361.879619640903</v>
       </c>
       <c r="V32" t="n">
-        <v>3102.014638898073</v>
+        <v>3102.01463889807</v>
       </c>
       <c r="W32" t="n">
-        <v>2820.443890228697</v>
+        <v>2820.443890228694</v>
       </c>
       <c r="X32" t="n">
-        <v>2518.176038568354</v>
+        <v>2518.176038568352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2199.23461319328</v>
+        <v>2199.234613193278</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>949.3934339019959</v>
+        <v>949.3934339019956</v>
       </c>
       <c r="C33" t="n">
-        <v>774.9404046208689</v>
+        <v>774.9404046208687</v>
       </c>
       <c r="D33" t="n">
-        <v>626.0059949596176</v>
+        <v>626.0059949596175</v>
       </c>
       <c r="E33" t="n">
-        <v>466.7685399541621</v>
+        <v>466.768539954162</v>
       </c>
       <c r="F33" t="n">
-        <v>320.2339819810471</v>
+        <v>320.233981981047</v>
       </c>
       <c r="G33" t="n">
-        <v>183.8708818136652</v>
+        <v>183.8708818136657</v>
       </c>
       <c r="H33" t="n">
-        <v>93.36898745153275</v>
+        <v>93.36898745153277</v>
       </c>
       <c r="I33" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0389653436881</v>
+        <v>168.038965343688</v>
       </c>
       <c r="K33" t="n">
-        <v>406.3031643240353</v>
+        <v>406.3031643240352</v>
       </c>
       <c r="L33" t="n">
-        <v>773.0013246367007</v>
+        <v>773.0013246367008</v>
       </c>
       <c r="M33" t="n">
         <v>1220.277649859016</v>
@@ -6816,7 +6816,7 @@
         <v>1787.457926620752</v>
       </c>
       <c r="W33" t="n">
-        <v>1533.220569892551</v>
+        <v>1533.22056989255</v>
       </c>
       <c r="X33" t="n">
         <v>1325.369069687018</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>601.0779136575319</v>
+        <v>601.0779136575297</v>
       </c>
       <c r="C34" t="n">
-        <v>503.3396373303626</v>
+        <v>503.3396373303606</v>
       </c>
       <c r="D34" t="n">
-        <v>424.4209045187644</v>
+        <v>424.4209045187628</v>
       </c>
       <c r="E34" t="n">
-        <v>347.7057175371089</v>
+        <v>347.7057175371075</v>
       </c>
       <c r="F34" t="n">
-        <v>272.013676639936</v>
+        <v>272.0136766399351</v>
       </c>
       <c r="G34" t="n">
-        <v>175.5087466153925</v>
+        <v>175.5087466153919</v>
       </c>
       <c r="H34" t="n">
-        <v>100.4894664339879</v>
+        <v>100.4894664339875</v>
       </c>
       <c r="I34" t="n">
-        <v>74.3616958530708</v>
+        <v>74.36169585307073</v>
       </c>
       <c r="J34" t="n">
-        <v>189.2653965593892</v>
+        <v>155.9655176498933</v>
       </c>
       <c r="K34" t="n">
-        <v>463.0336477676485</v>
+        <v>429.7337688581529</v>
       </c>
       <c r="L34" t="n">
-        <v>849.3745144755276</v>
+        <v>754.9889836605582</v>
       </c>
       <c r="M34" t="n">
-        <v>1226.991601689136</v>
+        <v>992.2025332191392</v>
       </c>
       <c r="N34" t="n">
-        <v>1468.081506978366</v>
+        <v>1403.391978184387</v>
       </c>
       <c r="O34" t="n">
-        <v>1675.780924455939</v>
+        <v>1611.09139566196</v>
       </c>
       <c r="P34" t="n">
-        <v>1844.51299546808</v>
+        <v>1779.823466674102</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.214831086004</v>
+        <v>1927.214831086</v>
       </c>
       <c r="R34" t="n">
-        <v>1908.58228044427</v>
+        <v>1908.582280444266</v>
       </c>
       <c r="S34" t="n">
-        <v>1788.094302871834</v>
+        <v>1788.09430287183</v>
       </c>
       <c r="T34" t="n">
-        <v>1637.525594042097</v>
+        <v>1637.525594042094</v>
       </c>
       <c r="U34" t="n">
-        <v>1419.620633768478</v>
+        <v>1419.620633768475</v>
       </c>
       <c r="V34" t="n">
-        <v>1236.134052163329</v>
+        <v>1236.134052163326</v>
       </c>
       <c r="W34" t="n">
-        <v>1017.914788727106</v>
+        <v>1017.914788727103</v>
       </c>
       <c r="X34" t="n">
-        <v>861.1231444298265</v>
+        <v>861.1231444298239</v>
       </c>
       <c r="Y34" t="n">
-        <v>711.528471887034</v>
+        <v>711.5284718870316</v>
       </c>
     </row>
     <row r="35">
@@ -6947,13 +6947,13 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052369</v>
@@ -6968,13 +6968,13 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
@@ -7090,25 +7090,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>67.83109325226756</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>176.3617198155309</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K37" t="n">
-        <v>274.6725740832013</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>505.9475671746778</v>
+        <v>429.0634411854744</v>
       </c>
       <c r="M37" t="n">
-        <v>770.0879214996994</v>
+        <v>693.2037955104961</v>
       </c>
       <c r="N37" t="n">
-        <v>1038.104631555371</v>
+        <v>961.2205055661675</v>
       </c>
       <c r="O37" t="n">
-        <v>1272.730853799384</v>
+        <v>1195.846727810181</v>
       </c>
       <c r="P37" t="n">
         <v>1371.681856552143</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,52 +7157,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
         <v>458.9189605332749</v>
@@ -7242,16 +7242,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7315,7 +7315,7 @@
         <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.307783615987</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
         <v>183.08927069192</v>
@@ -7324,28 +7324,28 @@
         <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>67.83109325226755</v>
+        <v>67.83109325226756</v>
       </c>
       <c r="J40" t="n">
-        <v>155.2189959588263</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K40" t="n">
-        <v>253.5298502264967</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L40" t="n">
-        <v>505.9475671746778</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M40" t="n">
-        <v>770.0879214996994</v>
+        <v>791.230645356404</v>
       </c>
       <c r="N40" t="n">
         <v>1038.104631555371</v>
       </c>
       <c r="O40" t="n">
-        <v>1272.730853799384</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P40" t="n">
         <v>1371.681856552143</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218468</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912101</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228008</v>
@@ -7494,46 +7494,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C43" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>67.83109325226761</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J43" t="n">
-        <v>79.65384678970706</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K43" t="n">
-        <v>253.5298502264959</v>
+        <v>350.2377232523205</v>
       </c>
       <c r="L43" t="n">
-        <v>505.947567174677</v>
+        <v>602.6554402005016</v>
       </c>
       <c r="M43" t="n">
-        <v>770.0879214996987</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N43" t="n">
-        <v>1038.10463155537</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O43" t="n">
         <v>1272.730853799384</v>
       </c>
       <c r="P43" t="n">
-        <v>1468.389729577966</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S43" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
         <v>767.0908251999817</v>
@@ -7722,7 +7722,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228008</v>
@@ -7731,19 +7731,19 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C46" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954468</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K46" t="n">
-        <v>370.061470288941</v>
+        <v>371.3804471090251</v>
       </c>
       <c r="L46" t="n">
-        <v>622.4791872371221</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M46" t="n">
-        <v>789.9116685363199</v>
+        <v>770.0879214996994</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.928378591991</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O46" t="n">
-        <v>1292.554600836005</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1391.505603588764</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S46" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
   </sheetData>
@@ -10033,25 +10033,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>29.006128284369</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>103.6921019650244</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10270,25 +10270,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>60.44383746145539</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>70.05586064230084</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10504,19 +10504,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>100.7720228491565</v>
       </c>
       <c r="M34" t="n">
-        <v>141.8217552070984</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.535048970106</v>
       </c>
       <c r="C11" t="n">
-        <v>338.0740990776329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.4842489273083</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.6772530483369</v>
       </c>
       <c r="G11" t="n">
-        <v>384.2056683677816</v>
+        <v>384.2056683677818</v>
       </c>
       <c r="H11" t="n">
-        <v>272.3527856880831</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.98930219783108</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.9817833598563</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>194.332795450123</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.039145962679</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>119.4814462069699</v>
       </c>
       <c r="I13" t="n">
-        <v>75.66553052399539</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>71.46971768104177</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.1993894437583</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>193.2753664738285</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.0248567023366</v>
       </c>
       <c r="V13" t="n">
-        <v>224.9388506304533</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>259.3242056432163</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>73.58275434818435</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.5350489701059</v>
+        <v>355.535048970106</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>354.7315773788872</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>383.7229329600788</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.37813707955129</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>247.5450035560401</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>290.9144962167833</v>
       </c>
     </row>
     <row r="15">
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>20.12065815730211</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.3501565827945</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>259.0130455122382</v>
+        <v>259.0130455122383</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>212.4708147400991</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>977954.1706110553</v>
+        <v>977954.1706110555</v>
       </c>
     </row>
     <row r="6">
@@ -26317,10 +26317,10 @@
         <v>266264.8100830375</v>
       </c>
       <c r="D2" t="n">
-        <v>266276.9676069069</v>
+        <v>266276.967606907</v>
       </c>
       <c r="E2" t="n">
-        <v>219703.5386115768</v>
+        <v>219703.5386115767</v>
       </c>
       <c r="F2" t="n">
         <v>237260.4454551473</v>
@@ -26350,10 +26350,10 @@
         <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>100114.16968425</v>
+        <v>100114.1696842488</v>
       </c>
       <c r="E3" t="n">
-        <v>911200.4620994304</v>
+        <v>911200.4620994322</v>
       </c>
       <c r="F3" t="n">
-        <v>137079.9226619474</v>
+        <v>137079.9226619467</v>
       </c>
       <c r="G3" t="n">
-        <v>56388.74202778418</v>
+        <v>56388.74202778431</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25672.44197498318</v>
+        <v>25672.441974983</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56388.74202778414</v>
+        <v>56388.74202778438</v>
       </c>
       <c r="M3" t="n">
-        <v>167824.8412152698</v>
+        <v>167824.8412152699</v>
       </c>
       <c r="N3" t="n">
-        <v>36041.55869098433</v>
+        <v>36041.5586909843</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>426870.9505742752</v>
+        <v>426870.9505742757</v>
       </c>
       <c r="E4" t="n">
-        <v>52907.79962237091</v>
+        <v>52907.79962237077</v>
       </c>
       <c r="F4" t="n">
-        <v>42745.5224348093</v>
+        <v>42745.52243480919</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.137826577</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.137826577</v>
       </c>
       <c r="I4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.137826577</v>
       </c>
       <c r="J4" t="n">
         <v>94617.61747824089</v>
       </c>
       <c r="K4" t="n">
-        <v>94617.61747824098</v>
+        <v>94617.61747824091</v>
       </c>
       <c r="L4" t="n">
-        <v>94617.61747824092</v>
+        <v>94617.61747824095</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657697</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657695</v>
+        <v>93774.13782657696</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657702</v>
+        <v>93774.137826577</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657693</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>36176.00404187303</v>
+        <v>36176.004041873</v>
       </c>
       <c r="E5" t="n">
-        <v>65028.30574261908</v>
+        <v>65028.30574261912</v>
       </c>
       <c r="F5" t="n">
         <v>76592.91586433261</v>
       </c>
       <c r="G5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="H5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="I5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="J5" t="n">
-        <v>86197.70236318494</v>
+        <v>86197.7023631849</v>
       </c>
       <c r="K5" t="n">
-        <v>86197.70236318494</v>
+        <v>86197.7023631849</v>
       </c>
       <c r="L5" t="n">
-        <v>86197.70236318494</v>
+        <v>86197.70236318492</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-234978.7498486937</v>
+        <v>-234983.1634265618</v>
       </c>
       <c r="C6" t="n">
-        <v>-234978.7498486938</v>
+        <v>-234983.1634265619</v>
       </c>
       <c r="D6" t="n">
-        <v>-296884.1566934914</v>
+        <v>-296888.4767519443</v>
       </c>
       <c r="E6" t="n">
-        <v>-809433.0288528436</v>
+        <v>-809795.606057417</v>
       </c>
       <c r="F6" t="n">
-        <v>-19157.91550594202</v>
+        <v>-19385.43958094693</v>
       </c>
       <c r="G6" t="n">
-        <v>34157.09804528112</v>
+        <v>34157.0980452809</v>
       </c>
       <c r="H6" t="n">
-        <v>90545.84007306529</v>
+        <v>90545.84007306522</v>
       </c>
       <c r="I6" t="n">
-        <v>90545.84007306529</v>
+        <v>90545.84007306524</v>
       </c>
       <c r="J6" t="n">
-        <v>60350.81338948297</v>
+        <v>60350.81338948324</v>
       </c>
       <c r="K6" t="n">
-        <v>86023.25536446617</v>
+        <v>86023.25536446627</v>
       </c>
       <c r="L6" t="n">
-        <v>29634.51333668202</v>
+        <v>29634.51333668173</v>
       </c>
       <c r="M6" t="n">
-        <v>-77279.00114220446</v>
+        <v>-77279.00114220462</v>
       </c>
       <c r="N6" t="n">
-        <v>54504.28138208098</v>
+        <v>54504.28138208097</v>
       </c>
       <c r="O6" t="n">
-        <v>90545.84007306529</v>
+        <v>90545.84007306534</v>
       </c>
       <c r="P6" t="n">
-        <v>90545.84007306524</v>
+        <v>90545.84007306545</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F2" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="K2" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="L2" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810489</v>
@@ -26722,10 +26722,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8992679758271</v>
+        <v>116.8992679758258</v>
       </c>
       <c r="E3" t="n">
-        <v>969.6962679272012</v>
+        <v>969.696267927202</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>684.2492072182035</v>
+        <v>684.2492072182041</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26808,28 +26808,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>929.521198163385</v>
+        <v>929.521198163384</v>
       </c>
       <c r="K4" t="n">
-        <v>929.521198163385</v>
+        <v>929.521198163384</v>
       </c>
       <c r="L4" t="n">
-        <v>929.521198163385</v>
+        <v>929.521198163384</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="M2" t="n">
-        <v>27.19879269337471</v>
+        <v>27.19879269337441</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8992679758271</v>
+        <v>116.8992679758258</v>
       </c>
       <c r="E3" t="n">
-        <v>852.7969999513741</v>
+        <v>852.7969999513763</v>
       </c>
       <c r="F3" t="n">
-        <v>120.0804326660971</v>
+        <v>120.0804326660963</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>684.2492072182035</v>
+        <v>684.2492072182041</v>
       </c>
       <c r="F4" t="n">
-        <v>147.1522481840891</v>
+        <v>147.1522481840888</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>98.11974276109208</v>
+        <v>98.1197427610914</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>586.1294644571115</v>
+        <v>586.1294644571129</v>
       </c>
       <c r="N4" t="n">
-        <v>147.1522481840889</v>
+        <v>147.1522481840888</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>684.2492072182035</v>
+        <v>684.2492072182041</v>
       </c>
       <c r="N4" t="n">
-        <v>147.1522481840891</v>
+        <v>147.1522481840888</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27871,37 +27871,37 @@
         <v>334.6619593895061</v>
       </c>
       <c r="I8" t="n">
-        <v>192.3582653346749</v>
+        <v>192.3582653346752</v>
       </c>
       <c r="J8" t="n">
-        <v>141.1597568066326</v>
+        <v>141.1597568066331</v>
       </c>
       <c r="K8" t="n">
-        <v>160.3108550297841</v>
+        <v>160.3108550297848</v>
       </c>
       <c r="L8" t="n">
-        <v>161.6052843927195</v>
+        <v>161.6052843927204</v>
       </c>
       <c r="M8" t="n">
-        <v>147.8276861399945</v>
+        <v>147.8276861399955</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5592801469556</v>
+        <v>145.5592801469566</v>
       </c>
       <c r="O8" t="n">
-        <v>150.9174615235474</v>
+        <v>150.9174615235484</v>
       </c>
       <c r="P8" t="n">
-        <v>163.6540576286005</v>
+        <v>163.6540576286014</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.5567217352551</v>
+        <v>171.5567217352557</v>
       </c>
       <c r="R8" t="n">
-        <v>186.065241765945</v>
+        <v>186.0652417659453</v>
       </c>
       <c r="S8" t="n">
-        <v>198.3111567460477</v>
+        <v>198.3111567460478</v>
       </c>
       <c r="T8" t="n">
         <v>221.0386574211598</v>
@@ -27950,34 +27950,34 @@
         <v>109.8070273677911</v>
       </c>
       <c r="I9" t="n">
-        <v>90.86521723009204</v>
+        <v>90.86521723009214</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0817103320696</v>
+        <v>103.0817103320699</v>
       </c>
       <c r="K9" t="n">
-        <v>97.23879417184929</v>
+        <v>97.23879417184978</v>
       </c>
       <c r="L9" t="n">
-        <v>83.95911316531453</v>
+        <v>83.95911316531519</v>
       </c>
       <c r="M9" t="n">
-        <v>78.42393287519253</v>
+        <v>78.42393287519329</v>
       </c>
       <c r="N9" t="n">
-        <v>65.94539423712034</v>
+        <v>65.94539423712112</v>
       </c>
       <c r="O9" t="n">
-        <v>82.77138982289071</v>
+        <v>82.77138982289142</v>
       </c>
       <c r="P9" t="n">
-        <v>85.95968732818343</v>
+        <v>85.959687328184</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.8852052636774</v>
+        <v>107.8852052636778</v>
       </c>
       <c r="R9" t="n">
-        <v>130.0679375727771</v>
+        <v>130.0679375727773</v>
       </c>
       <c r="S9" t="n">
         <v>167.0127145012187</v>
@@ -28029,37 +28029,37 @@
         <v>160.3529514569419</v>
       </c>
       <c r="I10" t="n">
-        <v>149.1110851163724</v>
+        <v>149.1110851163725</v>
       </c>
       <c r="J10" t="n">
-        <v>112.0917229631993</v>
+        <v>112.0917229631994</v>
       </c>
       <c r="K10" t="n">
-        <v>104.5219033388785</v>
+        <v>104.5219033388788</v>
       </c>
       <c r="L10" t="n">
-        <v>103.5441741750632</v>
+        <v>103.5441741750636</v>
       </c>
       <c r="M10" t="n">
-        <v>105.8816187392905</v>
+        <v>105.8816187392909</v>
       </c>
       <c r="N10" t="n">
-        <v>95.42709564823156</v>
+        <v>95.42709564823195</v>
       </c>
       <c r="O10" t="n">
-        <v>108.6606397881024</v>
+        <v>108.6606397881028</v>
       </c>
       <c r="P10" t="n">
-        <v>112.2324653417639</v>
+        <v>112.2324653417643</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.853212165096</v>
+        <v>133.8532121650962</v>
       </c>
       <c r="R10" t="n">
-        <v>167.8149687639164</v>
+        <v>167.8149687639165</v>
       </c>
       <c r="S10" t="n">
-        <v>220.3428948122237</v>
+        <v>220.3428948122238</v>
       </c>
       <c r="T10" t="n">
         <v>227.044890150435</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y11" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>16.17931180568596</v>
+        <v>16.17931180568587</v>
       </c>
       <c r="S12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y12" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="K13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="L13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="M13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="N13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="O13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="P13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="R13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="S13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="C16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="D16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="E16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="F16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="G16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="H16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="I16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="J16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="K16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="L16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="M16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="N16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="O16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="P16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="R16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="S16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="T16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="U16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="V16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="W16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="X16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.19879269337466</v>
+        <v>27.19879269337455</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>77.66073332242709</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P19" t="n">
-        <v>86.41330088048599</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68472022810488</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
-        <v>76.32843350416135</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>77.66073332242698</v>
       </c>
       <c r="N22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="24">
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L25" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810489</v>
+        <v>76.32843350416024</v>
       </c>
       <c r="P25" t="n">
-        <v>86.41330088048505</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="C26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="D26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="E26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="F26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="G26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="H26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="I26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="J26" t="n">
-        <v>70.48592753473022</v>
+        <v>7.17590155795537</v>
       </c>
       <c r="K26" t="n">
-        <v>7.175901557958753</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="L26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="M26" t="n">
-        <v>70.48592753473022</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="Q26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="T26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="U26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="V26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="W26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="X26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="Y26" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="C28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="D28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="E28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="F28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="G28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="H28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="I28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="J28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="K28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="L28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="M28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="N28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="O28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="P28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="R28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="S28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="T28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="U28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="V28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="W28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="X28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="C29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="D29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="E29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="F29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="G29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="H29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="I29" t="n">
-        <v>70.48592753473022</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="K29" t="n">
-        <v>7.175901557960174</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>36.08489931975998</v>
       </c>
       <c r="N29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="O29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="P29" t="n">
-        <v>70.48592753473022</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="R29" t="n">
-        <v>70.48592753473022</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="T29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="U29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="V29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="W29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="X29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="Y29" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="C31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="D31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="E31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="F31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="G31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="H31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="I31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="J31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="K31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="L31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="M31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="N31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="O31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="P31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="R31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="S31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="T31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="U31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="V31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="W31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="X31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
       <c r="Y31" t="n">
-        <v>70.48592753473022</v>
+        <v>70.48592753473039</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="C32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="D32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="E32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="F32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="G32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="H32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="M32" t="n">
-        <v>36.08489931976465</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="N32" t="n">
-        <v>70.48592753473018</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="Q32" t="n">
-        <v>70.48592753473018</v>
+        <v>7.175901557955029</v>
       </c>
       <c r="R32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="S32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="T32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="U32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="V32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="W32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="X32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="Y32" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="C34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="D34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="E34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="F34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="G34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="H34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="I34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="J34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="K34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="L34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="M34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="N34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="O34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="P34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="R34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="S34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="T34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="U34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="V34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="W34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="X34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.48592753473018</v>
+        <v>70.48592753473048</v>
       </c>
     </row>
     <row r="35">
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -30162,16 +30162,16 @@
         <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
+        <v>96.35242040983809</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="J37" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>76.32843350416087</v>
       </c>
       <c r="M37" t="n">
         <v>97.68472022810489</v>
@@ -30183,7 +30183,7 @@
         <v>97.68472022810489</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>77.66073332242749</v>
       </c>
       <c r="Q37" t="n">
         <v>97.68472022810489</v>
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30402,10 +30402,10 @@
         <v>97.68472022810489</v>
       </c>
       <c r="J40" t="n">
-        <v>76.3284335041609</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L40" t="n">
         <v>97.68472022810489</v>
@@ -30414,13 +30414,13 @@
         <v>97.68472022810489</v>
       </c>
       <c r="N40" t="n">
+        <v>76.3284335041609</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>97.68472022810489</v>
-      </c>
-      <c r="O40" t="n">
-        <v>97.68472022810489</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>97.68472022810489</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292717</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30496,7 +30496,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K43" t="n">
-        <v>76.32843350416007</v>
+        <v>76.32843350416087</v>
       </c>
       <c r="L43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>76.32843350416087</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66073332242719</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4699468059329731</v>
+        <v>0.4699468059329675</v>
       </c>
       <c r="H8" t="n">
-        <v>4.812842726261062</v>
+        <v>4.812842726261004</v>
       </c>
       <c r="I8" t="n">
-        <v>18.11762423573096</v>
+        <v>18.11762423573075</v>
       </c>
       <c r="J8" t="n">
-        <v>39.88614772005371</v>
+        <v>39.88614772005324</v>
       </c>
       <c r="K8" t="n">
-        <v>59.77899601519648</v>
+        <v>59.77899601519576</v>
       </c>
       <c r="L8" t="n">
-        <v>74.16113057726771</v>
+        <v>74.16113057726683</v>
       </c>
       <c r="M8" t="n">
-        <v>82.51854708727822</v>
+        <v>82.51854708727724</v>
       </c>
       <c r="N8" t="n">
-        <v>83.85378344963529</v>
+        <v>83.85378344963429</v>
       </c>
       <c r="O8" t="n">
-        <v>79.18074989813928</v>
+        <v>79.18074989813833</v>
       </c>
       <c r="P8" t="n">
-        <v>67.578938126669</v>
+        <v>67.57893812666819</v>
       </c>
       <c r="Q8" t="n">
-        <v>50.74896813919438</v>
+        <v>50.74896813919378</v>
       </c>
       <c r="R8" t="n">
-        <v>29.52029604818715</v>
+        <v>29.52029604818679</v>
       </c>
       <c r="S8" t="n">
-        <v>10.70891284019764</v>
+        <v>10.70891284019751</v>
       </c>
       <c r="T8" t="n">
-        <v>2.057192142971591</v>
+        <v>2.057192142971566</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03759574447463784</v>
+        <v>0.03759574447463739</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2514437084763074</v>
+        <v>0.2514437084763044</v>
       </c>
       <c r="H9" t="n">
-        <v>2.428416868705391</v>
+        <v>2.428416868705362</v>
       </c>
       <c r="I9" t="n">
-        <v>8.657162769907956</v>
+        <v>8.657162769907853</v>
       </c>
       <c r="J9" t="n">
-        <v>23.7559163345971</v>
+        <v>23.75591633459682</v>
       </c>
       <c r="K9" t="n">
-        <v>40.6026448025097</v>
+        <v>40.60264480250922</v>
       </c>
       <c r="L9" t="n">
-        <v>54.59526661455966</v>
+        <v>54.595266614559</v>
       </c>
       <c r="M9" t="n">
-        <v>63.71010104682578</v>
+        <v>63.71010104682502</v>
       </c>
       <c r="N9" t="n">
-        <v>65.39631784621297</v>
+        <v>65.39631784621218</v>
       </c>
       <c r="O9" t="n">
-        <v>59.82485462155373</v>
+        <v>59.82485462155302</v>
       </c>
       <c r="P9" t="n">
-        <v>48.01472008614682</v>
+        <v>48.01472008614625</v>
       </c>
       <c r="Q9" t="n">
-        <v>32.09656882234409</v>
+        <v>32.09656882234371</v>
       </c>
       <c r="R9" t="n">
-        <v>15.61156639118688</v>
+        <v>15.6115663911867</v>
       </c>
       <c r="S9" t="n">
-        <v>4.670456602619129</v>
+        <v>4.670456602619073</v>
       </c>
       <c r="T9" t="n">
-        <v>1.013494596884765</v>
+        <v>1.013494596884753</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01654234924186234</v>
+        <v>0.01654234924186214</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2108019586449342</v>
+        <v>0.2108019586449316</v>
       </c>
       <c r="H10" t="n">
-        <v>1.874221050497689</v>
+        <v>1.874221050497666</v>
       </c>
       <c r="I10" t="n">
-        <v>6.339389810885841</v>
+        <v>6.339389810885765</v>
       </c>
       <c r="J10" t="n">
-        <v>14.90369847619685</v>
+        <v>14.90369847619667</v>
       </c>
       <c r="K10" t="n">
-        <v>24.49135483165689</v>
+        <v>24.4913548316566</v>
       </c>
       <c r="L10" t="n">
-        <v>31.34050210617504</v>
+        <v>31.34050210617466</v>
       </c>
       <c r="M10" t="n">
-        <v>33.04416520831454</v>
+        <v>33.04416520831415</v>
       </c>
       <c r="N10" t="n">
-        <v>32.25844881700163</v>
+        <v>32.25844881700124</v>
       </c>
       <c r="O10" t="n">
-        <v>29.79589866374034</v>
+        <v>29.79589866373999</v>
       </c>
       <c r="P10" t="n">
-        <v>25.49553870738367</v>
+        <v>25.49553870738336</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.6517894643499</v>
+        <v>17.65178946434969</v>
       </c>
       <c r="R10" t="n">
-        <v>9.478422613253128</v>
+        <v>9.478422613253016</v>
       </c>
       <c r="S10" t="n">
-        <v>3.673703224748533</v>
+        <v>3.673703224748489</v>
       </c>
       <c r="T10" t="n">
-        <v>0.9006992778465367</v>
+        <v>0.9006992778465259</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01149828865336006</v>
+        <v>0.01149828865335992</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.898276453978696</v>
+        <v>3.898276453978699</v>
       </c>
       <c r="H11" t="n">
-        <v>39.92322373430932</v>
+        <v>39.92322373430936</v>
       </c>
       <c r="I11" t="n">
-        <v>150.2883029920138</v>
+        <v>150.2883029920139</v>
       </c>
       <c r="J11" t="n">
-        <v>330.8613411858746</v>
+        <v>330.8613411858749</v>
       </c>
       <c r="K11" t="n">
-        <v>495.8753834827929</v>
+        <v>495.8753834827933</v>
       </c>
       <c r="L11" t="n">
-        <v>615.1772615112435</v>
+        <v>615.1772615112441</v>
       </c>
       <c r="M11" t="n">
-        <v>684.5032353996871</v>
+        <v>684.5032353996877</v>
       </c>
       <c r="N11" t="n">
-        <v>695.5792133745541</v>
+        <v>695.5792133745547</v>
       </c>
       <c r="O11" t="n">
-        <v>656.8157268853034</v>
+        <v>656.815726885304</v>
       </c>
       <c r="P11" t="n">
-        <v>560.5770269277043</v>
+        <v>560.5770269277048</v>
       </c>
       <c r="Q11" t="n">
-        <v>420.9700014195922</v>
+        <v>420.9700014195925</v>
       </c>
       <c r="R11" t="n">
-        <v>244.8751083022395</v>
+        <v>244.8751083022397</v>
       </c>
       <c r="S11" t="n">
-        <v>88.83197469503961</v>
+        <v>88.83197469503969</v>
       </c>
       <c r="T11" t="n">
-        <v>17.06470517729175</v>
+        <v>17.06470517729176</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3118621163182956</v>
+        <v>0.3118621163182959</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.085761783843414</v>
+        <v>2.085761783843416</v>
       </c>
       <c r="H12" t="n">
-        <v>20.14406775448771</v>
+        <v>20.14406775448773</v>
       </c>
       <c r="I12" t="n">
-        <v>71.81241229460878</v>
+        <v>71.81241229460883</v>
       </c>
       <c r="J12" t="n">
-        <v>197.0587481832061</v>
+        <v>197.0587481832063</v>
       </c>
       <c r="K12" t="n">
-        <v>336.8047877007148</v>
+        <v>336.8047877007151</v>
       </c>
       <c r="L12" t="n">
-        <v>452.875601356001</v>
+        <v>452.8756013560014</v>
       </c>
       <c r="M12" t="n">
-        <v>528.4844660203246</v>
+        <v>528.484466020325</v>
       </c>
       <c r="N12" t="n">
-        <v>542.4718772812746</v>
+        <v>542.4718772812751</v>
       </c>
       <c r="O12" t="n">
-        <v>496.2557872287442</v>
+        <v>496.2557872287446</v>
       </c>
       <c r="P12" t="n">
-        <v>398.289019934099</v>
+        <v>398.2890199340993</v>
       </c>
       <c r="Q12" t="n">
-        <v>266.245662092012</v>
+        <v>266.2456620920122</v>
       </c>
       <c r="R12" t="n">
-        <v>129.500192158278</v>
+        <v>129.5001921582781</v>
       </c>
       <c r="S12" t="n">
-        <v>38.74211032709146</v>
+        <v>38.74211032709149</v>
       </c>
       <c r="T12" t="n">
-        <v>8.407083681368846</v>
+        <v>8.407083681368853</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1372211699896984</v>
+        <v>0.1372211699896985</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.748632614294953</v>
+        <v>1.748632614294954</v>
       </c>
       <c r="H13" t="n">
-        <v>15.54693360709514</v>
+        <v>15.54693360709515</v>
       </c>
       <c r="I13" t="n">
-        <v>52.58615170988823</v>
+        <v>52.58615170988828</v>
       </c>
       <c r="J13" t="n">
-        <v>123.6283258306532</v>
+        <v>123.6283258306533</v>
       </c>
       <c r="K13" t="n">
-        <v>203.1593164608136</v>
+        <v>203.1593164608137</v>
       </c>
       <c r="L13" t="n">
-        <v>259.9739797652697</v>
+        <v>259.9739797652699</v>
       </c>
       <c r="M13" t="n">
-        <v>274.1061106207988</v>
+        <v>274.106110620799</v>
       </c>
       <c r="N13" t="n">
-        <v>267.5884799675179</v>
+        <v>267.588479967518</v>
       </c>
       <c r="O13" t="n">
-        <v>247.1612717005267</v>
+        <v>247.1612717005269</v>
       </c>
       <c r="P13" t="n">
-        <v>211.4891663689095</v>
+        <v>211.4891663689097</v>
       </c>
       <c r="Q13" t="n">
-        <v>146.4241364570074</v>
+        <v>146.4241364570075</v>
       </c>
       <c r="R13" t="n">
-        <v>78.62488100275304</v>
+        <v>78.62488100275311</v>
       </c>
       <c r="S13" t="n">
-        <v>30.47389746912203</v>
+        <v>30.47389746912206</v>
       </c>
       <c r="T13" t="n">
-        <v>7.471430261078433</v>
+        <v>7.47143026107844</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09537996077972481</v>
+        <v>0.0953799607797249</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34369,7 +34369,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003823</v>
       </c>
       <c r="L44" t="n">
         <v>691.3565293623194</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>149.8154366591883</v>
+        <v>149.8154366591886</v>
       </c>
       <c r="K11" t="n">
-        <v>275.7855324378123</v>
+        <v>275.7855324378127</v>
       </c>
       <c r="L11" t="n">
-        <v>379.4108465412563</v>
+        <v>379.4108465412568</v>
       </c>
       <c r="M11" t="n">
-        <v>454.1570021724144</v>
+        <v>454.157002172415</v>
       </c>
       <c r="N11" t="n">
-        <v>466.1661497779632</v>
+        <v>466.1661497779638</v>
       </c>
       <c r="O11" t="n">
-        <v>426.7175154636167</v>
+        <v>426.7175154636172</v>
       </c>
       <c r="P11" t="n">
-        <v>329.3440311724348</v>
+        <v>329.3440311724352</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.6643115451427</v>
+        <v>198.664311545143</v>
       </c>
       <c r="R11" t="n">
-        <v>29.28957048810733</v>
+        <v>29.28957048810753</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>70.2211215165394</v>
+        <v>70.22112151653957</v>
       </c>
       <c r="K12" t="n">
-        <v>198.9633487263558</v>
+        <v>198.9633487263561</v>
       </c>
       <c r="L12" t="n">
-        <v>314.3212215761268</v>
+        <v>314.3212215761272</v>
       </c>
       <c r="M12" t="n">
-        <v>386.3504320983063</v>
+        <v>386.3504320983067</v>
       </c>
       <c r="N12" t="n">
-        <v>411.1301651979413</v>
+        <v>411.1301651979418</v>
       </c>
       <c r="O12" t="n">
-        <v>353.6595427842998</v>
+        <v>353.6595427843002</v>
       </c>
       <c r="P12" t="n">
-        <v>264.3146125197687</v>
+        <v>264.3146125197691</v>
       </c>
       <c r="Q12" t="n">
-        <v>126.2638880059905</v>
+        <v>126.2638880059907</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35574,16 +35574,16 @@
         <v>314.7627977189605</v>
       </c>
       <c r="M13" t="n">
-        <v>340.8887802760141</v>
+        <v>340.8887802760142</v>
       </c>
       <c r="N13" t="n">
-        <v>338.9194450401211</v>
+        <v>338.9194450401212</v>
       </c>
       <c r="O13" t="n">
         <v>298.9451923079411</v>
       </c>
       <c r="P13" t="n">
-        <v>235.9665183271776</v>
+        <v>235.9665183271777</v>
       </c>
       <c r="Q13" t="n">
         <v>87.46088589868768</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.77720930644088</v>
+        <v>72.77720930644077</v>
       </c>
       <c r="K16" t="n">
-        <v>233.2464522376942</v>
+        <v>233.2464522376941</v>
       </c>
       <c r="L16" t="n">
-        <v>346.9561648635728</v>
+        <v>346.9561648635727</v>
       </c>
       <c r="M16" t="n">
-        <v>374.8321720868585</v>
+        <v>374.8321720868584</v>
       </c>
       <c r="N16" t="n">
-        <v>372.0557388609147</v>
+        <v>372.0557388609146</v>
       </c>
       <c r="O16" t="n">
-        <v>329.5519229160145</v>
+        <v>329.5519229160143</v>
       </c>
       <c r="P16" t="n">
-        <v>262.1558638384851</v>
+        <v>262.155863838485</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.5930312312683</v>
+        <v>105.5930312312682</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36042,28 +36042,28 @@
         <v>109.6268955184478</v>
       </c>
       <c r="K19" t="n">
-        <v>196.9886134277719</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>246.7844518064653</v>
       </c>
       <c r="N19" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P19" t="n">
-        <v>186.3638087115553</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36273,34 +36273,34 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.332299818266783</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>88.27060879450424</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
-        <v>196.9886134277719</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>246.7844518064652</v>
       </c>
       <c r="N22" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O22" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P22" t="n">
-        <v>197.6352280591742</v>
+        <v>197.6352280591743</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
-        <v>8.752567558057549</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,16 +36510,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.332299818266854</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M25" t="n">
         <v>266.8084387121431</v>
@@ -36528,16 +36528,16 @@
         <v>270.7239495511832</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848622</v>
+        <v>215.6398973609176</v>
       </c>
       <c r="P25" t="n">
-        <v>186.3638087115544</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q25" t="n">
         <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>8.752567558057621</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>28.9089977618043</v>
+        <v>28.90899776180444</v>
       </c>
       <c r="J26" t="n">
-        <v>261.2729285034429</v>
+        <v>197.9629025266679</v>
       </c>
       <c r="K26" t="n">
-        <v>344.3671881133594</v>
+        <v>407.6772140901309</v>
       </c>
       <c r="L26" t="n">
         <v>526.0760419270625</v>
       </c>
       <c r="M26" t="n">
-        <v>609.4070433649571</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>622.7877629476418</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.761986219372</v>
+        <v>469.2479137541022</v>
       </c>
       <c r="Q26" t="n">
-        <v>321.2802323384498</v>
+        <v>321.2802323384499</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>82.42810282507314</v>
+        <v>82.42810282507328</v>
       </c>
       <c r="K28" t="n">
-        <v>198.7959490187663</v>
+        <v>169.7898207343974</v>
       </c>
       <c r="L28" t="n">
-        <v>227.768598163374</v>
+        <v>390.2432997049285</v>
       </c>
       <c r="M28" t="n">
-        <v>418.1193069282141</v>
+        <v>418.1193069282142</v>
       </c>
       <c r="N28" t="n">
-        <v>415.3428737022704</v>
+        <v>243.5251568578087</v>
       </c>
       <c r="O28" t="n">
-        <v>209.7973913914876</v>
+        <v>209.7973913914877</v>
       </c>
       <c r="P28" t="n">
-        <v>170.4364353657996</v>
+        <v>274.1285373308241</v>
       </c>
       <c r="Q28" t="n">
-        <v>148.8801660726239</v>
+        <v>83.53720769487259</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>28.90899776180427</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>261.2729285034428</v>
+        <v>261.2729285034429</v>
       </c>
       <c r="K29" t="n">
-        <v>344.3671881133607</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>526.0760419270625</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>575.0060151499868</v>
       </c>
       <c r="N29" t="n">
-        <v>622.7877629476417</v>
+        <v>622.7877629476418</v>
       </c>
       <c r="O29" t="n">
-        <v>578.5389284229493</v>
+        <v>578.5389284229495</v>
       </c>
       <c r="P29" t="n">
-        <v>469.2479137541021</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>321.2802323384499</v>
       </c>
       <c r="R29" t="n">
-        <v>130.099126076955</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>116.0643441477964</v>
+        <v>116.0643441477966</v>
       </c>
       <c r="K31" t="n">
-        <v>276.5335870790498</v>
+        <v>169.7898207343974</v>
       </c>
       <c r="L31" t="n">
-        <v>227.7685981633739</v>
+        <v>390.2432997049285</v>
       </c>
       <c r="M31" t="n">
-        <v>418.1193069282141</v>
+        <v>418.1193069282142</v>
       </c>
       <c r="N31" t="n">
-        <v>303.9689943192639</v>
+        <v>243.5251568578087</v>
       </c>
       <c r="O31" t="n">
-        <v>209.7973913914875</v>
+        <v>209.7973913914877</v>
       </c>
       <c r="P31" t="n">
-        <v>170.4364353657996</v>
+        <v>240.4922960081006</v>
       </c>
       <c r="Q31" t="n">
-        <v>148.8801660726239</v>
+        <v>83.53720769487259</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>28.90899776180453</v>
       </c>
       <c r="J32" t="n">
         <v>190.7870009687126</v>
@@ -37072,25 +37072,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>526.0760419270623</v>
+        <v>526.0760419270626</v>
       </c>
       <c r="M32" t="n">
-        <v>575.0060151499914</v>
+        <v>609.4070433649572</v>
       </c>
       <c r="N32" t="n">
-        <v>622.7877629476416</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>578.5389284229493</v>
+        <v>578.5389284229497</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>469.2479137541023</v>
       </c>
       <c r="Q32" t="n">
-        <v>321.2802323384497</v>
+        <v>257.9702063616745</v>
       </c>
       <c r="R32" t="n">
-        <v>130.099126076955</v>
+        <v>130.0991260769553</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>116.0643441477964</v>
+        <v>82.42810282507337</v>
       </c>
       <c r="K34" t="n">
-        <v>276.5335870790498</v>
+        <v>276.5335870790501</v>
       </c>
       <c r="L34" t="n">
-        <v>390.2432997049283</v>
+        <v>328.5406210125307</v>
       </c>
       <c r="M34" t="n">
-        <v>381.4314012258668</v>
+        <v>239.6096460187687</v>
       </c>
       <c r="N34" t="n">
-        <v>243.5251568578085</v>
+        <v>415.3428737022706</v>
       </c>
       <c r="O34" t="n">
-        <v>209.7973913914875</v>
+        <v>209.7973913914878</v>
       </c>
       <c r="P34" t="n">
-        <v>170.4364353657995</v>
+        <v>170.4364353657998</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.53720769487238</v>
+        <v>148.8801660726241</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37324,7 +37324,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37458,16 +37458,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.332299818266797</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K37" t="n">
         <v>99.30389319966704</v>
       </c>
       <c r="L37" t="n">
-        <v>233.6111041328046</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M37" t="n">
         <v>266.8084387121431</v>
@@ -37479,7 +37479,7 @@
         <v>236.9961840848622</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>177.6112411534968</v>
       </c>
       <c r="Q37" t="n">
         <v>110.7360003882471</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37698,10 +37698,10 @@
         <v>1.332299818266797</v>
       </c>
       <c r="J40" t="n">
-        <v>88.27060879450379</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
@@ -37710,13 +37710,13 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
-        <v>270.7239495511832</v>
+        <v>249.3676628272392</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
         <v>110.7360003882471</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882196</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.33229981826684</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>175.6323267038271</v>
+        <v>175.6323267038279</v>
       </c>
       <c r="L43" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121431</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554017</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266797</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184478</v>
@@ -38178,25 +38178,25 @@
         <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>254.9673908567486</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>245.4521519881991</v>
       </c>
       <c r="N46" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.71201348256939</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057564</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
